--- a/docs/NN time efficiency.xlsx
+++ b/docs/NN time efficiency.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>INPUTS</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>20s</t>
-  </si>
-  <si>
-    <t>None - only preprocessor ran; returned hardcoded zeros as probabilities</t>
   </si>
   <si>
     <t>None - only preprocessor and postprocessor ran; returned hardcoded zeros as probabilities</t>
@@ -265,49 +262,49 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,7 +604,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,172 +614,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="2">
+        <v>257</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>257</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5">
-        <v>257</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5">
-        <v>257</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -791,27 +801,15 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/NN time efficiency.xlsx
+++ b/docs/NN time efficiency.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>INPUTS</t>
   </si>
@@ -54,15 +54,9 @@
     <t>any</t>
   </si>
   <si>
-    <t>None - classifier, preprocessor and postprocessor were not run; returned hardcoded zeros as probabilities</t>
-  </si>
-  <si>
     <t>20s</t>
   </si>
   <si>
-    <t>None - only preprocessor and postprocessor ran; returned hardcoded zeros as probabilities</t>
-  </si>
-  <si>
     <t>74s</t>
   </si>
   <si>
@@ -79,13 +73,22 @@
   </si>
   <si>
     <t>21s</t>
+  </si>
+  <si>
+    <t>None* - bypassed input preprocessing, prediction from model and output postprocessor; returned hardcoded zeros as probabilities</t>
+  </si>
+  <si>
+    <t>None* - bypassed prediction from model. Only preprocessor and postprocessor ran; returned hardcoded zeros as probabilities</t>
+  </si>
+  <si>
+    <t>* - in these cases, the whole classification process (including the IPC) was run, but we bypassed running some of the code that preprocesses the input, generates predictions from the model or postprocesses the output. We did this to isolate the time-costs of the data transmission, input and output processing, and running the NN classifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +96,18 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,52 +275,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,212 +619,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A17" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1">
+      <c r="B9" s="2">
+        <v>257</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2">
+        <v>257</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="2">
-        <v>257</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>257</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="33">
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/NN time efficiency.xlsx
+++ b/docs/NN time efficiency.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>INPUTS</t>
   </si>
@@ -36,9 +36,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Classification time</t>
-  </si>
-  <si>
     <t>129</t>
   </si>
   <si>
@@ -81,7 +78,16 @@
     <t>None* - bypassed prediction from model. Only preprocessor and postprocessor ran; returned hardcoded zeros as probabilities</t>
   </si>
   <si>
-    <t>* - in these cases, the whole classification process (including the IPC) was run, but we bypassed running some of the code that preprocesses the input, generates predictions from the model or postprocesses the output. We did this to isolate the time-costs of the data transmission, input and output processing, and running the NN classifier</t>
+    <t>256 + x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Conv(257,128), Conv(1,64), Conv(1,32), Conv(1,1)=&gt;Output(x,1)</t>
+  </si>
+  <si>
+    <t>Classification time for 1 min of audio</t>
   </si>
 </sst>
 </file>
@@ -277,53 +283,53 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,7 +628,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:F18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,202 +640,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1">
+      <c r="B9" s="4">
+        <v>257</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1">
-      <c r="B5" s="2" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="4">
+        <v>257</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" customHeight="1">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1">
-      <c r="B9" s="2">
-        <v>257</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2">
-        <v>257</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A17:F18"/>
+  <mergeCells count="36">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -845,23 +875,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
